--- a/biology/Zoologie/Cravaté_italien/Cravaté_italien.xlsx
+++ b/biology/Zoologie/Cravaté_italien/Cravaté_italien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cravat%C3%A9_italien</t>
+          <t>Cravaté_italien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le cravaté italien est une race de pigeon domestique originaire d'Italie, autour de Reggio Emilia. Elle est classée dans la catégorie des pigeons cravatés[1].
+Le cravaté italien est une race de pigeon domestique originaire d'Italie, autour de Reggio Emilia. Elle est classée dans la catégorie des pigeons cravatés.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cravat%C3%A9_italien</t>
+          <t>Cravaté_italien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette race issue de sélections de Columba livia apparaît au XVIe siècle autour de Reggio Emilia. Elle est divisée en deux groupes : le « reggiano », race originelle, et le « rondone » dont le plumage présente un aspect glacé ou givré[2]. Ces deux groupes ne doivent pas être mélangés.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette race issue de sélections de Columba livia apparaît au XVIe siècle autour de Reggio Emilia. Elle est divisée en deux groupes : le « reggiano », race originelle, et le « rondone » dont le plumage présente un aspect glacé ou givré. Ces deux groupes ne doivent pas être mélangés.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cravat%C3%A9_italien</t>
+          <t>Cravaté_italien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cravaté italien est un pigeon de petite taille, de hauteur moyenne sur pattes, au port altier et horizontal avec une poitrine bombée. Sa tête est bien ronde avec un tout petit bec. Son cou est marqué par une cravate symétrique. Le plumage est lisse et bien serré.
 Une vingtaine de coloris pour le plumage sont autorisés par le standard officiel. Ils passent du noir au blanc en passant par le bleu barré, le rouge.
